--- a/Чек-лист_общий.xlsx
+++ b/Чек-лист_общий.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79170\Desktop\Домашнее_задание\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79170\Desktop\Домашнее_задание\HW_testing_form_registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="277">
   <si>
     <t>Сайт</t>
   </si>
@@ -460,6 +460,9 @@
     <t>13.5</t>
   </si>
   <si>
+    <t>Регистрация пользователя с длиной фамилией(100 символов) в Surname</t>
+  </si>
+  <si>
     <t>Name: Sasha
 Surname: qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasqwertyuiopasdfghjkklzxcvbnmqwertyuio
 Email: qwe@mail.ru
@@ -938,7 +941,7 @@
     <t>Name: Maxim
 Surnam: werty
 Email: qwe@mail.ru
-Password: qwertyuiopasdf@1</t>
+Password: qwertAuiopasdf@1</t>
   </si>
   <si>
     <t>15.6</t>
@@ -1047,6 +1050,15 @@
 Surname:www
 Email: qwe@mail.ru
 Password: 😃😃😃😃</t>
+  </si>
+  <si>
+    <t>Написать пароль в поле Password, скопировать его, вставить в любое поле</t>
+  </si>
+  <si>
+    <t>Password: Qwerty@1</t>
+  </si>
+  <si>
+    <t>Пароль не копируется</t>
   </si>
   <si>
     <t>15.15</t>
@@ -1089,7 +1101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1115,15 +1127,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1133,21 +1137,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1176,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1193,56 +1183,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,10 +1440,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1473,9 +1451,10 @@
     <col min="1" max="1" width="14.44140625" style="3"/>
     <col min="2" max="2" width="82.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="67" style="3" customWidth="1"/>
-    <col min="4" max="4" width="115.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="3"/>
+    <col min="4" max="4" width="58.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="72" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -1603,7 +1582,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <f t="shared" ref="A8:A13" si="0">A7+1</f>
         <v>2</v>
       </c>
@@ -1629,7 +1608,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1655,7 +1634,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1681,7 +1660,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1707,7 +1686,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1725,81 +1704,81 @@
       <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1811,20 +1790,20 @@
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1836,19 +1815,19 @@
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
@@ -1863,19 +1842,19 @@
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="14"/>
+      <c r="E18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1887,52 +1866,52 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="7" t="s">
         <v>17</v>
       </c>
@@ -1944,22 +1923,22 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="14"/>
+      <c r="E21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="7" t="s">
         <v>17</v>
       </c>
@@ -1971,22 +1950,22 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="14"/>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="7" t="s">
         <v>17</v>
       </c>
@@ -1998,22 +1977,22 @@
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="7" t="s">
         <v>17</v>
       </c>
@@ -2025,22 +2004,22 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="7" t="s">
         <v>17</v>
       </c>
@@ -2052,23 +2031,23 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2077,23 +2056,23 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2102,23 +2081,23 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2127,22 +2106,22 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="14"/>
+      <c r="E28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="7" t="s">
         <v>17</v>
       </c>
@@ -2154,22 +2133,22 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="14"/>
+      <c r="E29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="7" t="s">
         <v>17</v>
       </c>
@@ -2181,22 +2160,22 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="14"/>
+      <c r="E30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="7" t="s">
         <v>17</v>
       </c>
@@ -2208,22 +2187,22 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="14"/>
+      <c r="E31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="7" t="s">
         <v>17</v>
       </c>
@@ -2235,22 +2214,22 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="E32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="7" t="s">
         <v>17</v>
       </c>
@@ -2262,22 +2241,22 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="14"/>
+      <c r="E33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="7" t="s">
         <v>17</v>
       </c>
@@ -2289,23 +2268,23 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2314,22 +2293,22 @@
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="14"/>
+      <c r="E35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="7" t="s">
         <v>17</v>
       </c>
@@ -2341,49 +2320,49 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -2391,19 +2370,19 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -2411,36 +2390,36 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>115</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -2448,19 +2427,19 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -2468,54 +2447,54 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="21" t="s">
+      <c r="C42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="21"/>
+      <c r="C43" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G44" s="7" t="s">
@@ -2523,19 +2502,19 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="7" t="s">
@@ -2543,19 +2522,19 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -2563,19 +2542,19 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -2583,19 +2562,19 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -2603,19 +2582,19 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="C49" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -2623,19 +2602,19 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="C50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -2643,205 +2622,205 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="A51" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
     </row>
     <row r="52" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="21"/>
+      <c r="D52" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="18"/>
       <c r="G52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
     </row>
     <row r="53" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+    </row>
+    <row r="54" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+    </row>
+    <row r="55" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-    </row>
-    <row r="54" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-    </row>
-    <row r="55" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="21"/>
+      <c r="E55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
     </row>
     <row r="56" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" s="11" t="s">
+      <c r="C56" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -2849,19 +2828,19 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="11" t="s">
+      <c r="C57" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -2869,36 +2848,36 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="D58" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="C59" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -2906,19 +2885,19 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="11" t="s">
+      <c r="C60" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -2926,19 +2905,19 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="C61" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -2946,19 +2925,19 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="C62" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -2966,19 +2945,19 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="11" t="s">
+      <c r="C63" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -2986,19 +2965,19 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="C64" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -3006,19 +2985,19 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="C65" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -3026,37 +3005,37 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="21"/>
+      <c r="C66" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="C67" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -3064,19 +3043,19 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="11" t="s">
+      <c r="C68" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -3084,19 +3063,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="C69" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G69" s="7" t="s">
@@ -3104,19 +3083,19 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="11" t="s">
+      <c r="C70" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G70" s="7" t="s">
@@ -3124,19 +3103,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="11" t="s">
+      <c r="C71" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G71" s="7" t="s">
@@ -3144,19 +3123,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="11" t="s">
+      <c r="C72" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -3164,19 +3143,19 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" s="11" t="s">
+      <c r="C73" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G73" s="7" t="s">
@@ -3184,19 +3163,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E74" s="11" t="s">
+      <c r="C74" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -3204,19 +3183,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="11" t="s">
+      <c r="C75" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G75" s="7" t="s">
@@ -3224,49 +3203,49 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
+      <c r="A76" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
     </row>
     <row r="77" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="C77" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="D77" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -3274,19 +3253,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -3294,19 +3273,19 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E79" s="11" t="s">
+      <c r="C79" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G79" s="7" t="s">
@@ -3314,19 +3293,19 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="C80" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G80" s="7" t="s">
@@ -3334,37 +3313,37 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B81" s="11" t="s">
+      <c r="A81" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="21"/>
+      <c r="C81" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" s="11" t="s">
+      <c r="C82" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -3372,19 +3351,19 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="A83" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E83" s="11" t="s">
+      <c r="C83" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G83" s="7" t="s">
@@ -3392,19 +3371,19 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="A84" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="11" t="s">
+      <c r="C84" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -3412,19 +3391,19 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" s="11" t="s">
+      <c r="C85" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="7" t="s">
@@ -3432,19 +3411,19 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" s="11" t="s">
+      <c r="C86" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -3452,19 +3431,19 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="A87" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E87" s="11" t="s">
+      <c r="C87" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G87" s="7" t="s">
@@ -3472,19 +3451,19 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E88" s="11" t="s">
+      <c r="C88" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -3492,19 +3471,19 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" s="11" t="s">
+      <c r="A89" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E89" s="11" t="s">
+      <c r="C89" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -3512,59 +3491,55 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B90" s="11" t="s">
+      <c r="A90" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E90" s="11" t="s">
+      <c r="C90" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B91" s="11" t="s">
+    <row r="91" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D91" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B92" s="11" t="s">
+      <c r="A92" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E92" s="11" t="s">
+      <c r="C92" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -3572,32 +3547,52 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B93" s="11" t="s">
+      <c r="A93" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="B93" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E93" s="11" t="s">
+      <c r="C93" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A14:Z14"/>
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A36:Z36"/>
+    <mergeCell ref="A51:Z51"/>
     <mergeCell ref="A76:Z76"/>
-    <mergeCell ref="A51:Z51"/>
-    <mergeCell ref="A36:Z36"/>
-    <mergeCell ref="A14:Z14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
